--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224949.7147478308</v>
+        <v>-226837.2962642327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456632.8747571623</v>
+        <v>245473.3123428913</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>146.061301375297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>91.91498084565134</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>75.20891053381759</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>197.2982592812052</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>23.38267037520646</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>313.5287243150134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>23.02773856927889</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>262.7788079648764</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>249.2819505385571</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>38.9611585419612</v>
       </c>
       <c r="V10" t="n">
-        <v>118.991326963702</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206811</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>76.77273444942088</v>
       </c>
       <c r="W13" t="n">
-        <v>109.5988919864494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.3517394623326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>62.74236544294357</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>110.6907158639458</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9576419790504</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>169.7438101404427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>111.967996613065</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>62.74236544294277</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>33.35146980185863</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.23851788996269</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404426</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533799</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965499</v>
       </c>
       <c r="E31" t="n">
-        <v>6.335616750271187</v>
+        <v>21.69119935397322</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571463</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952706</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235374</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373612</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.892406545185</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.892406545185</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1100.104153946941</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4364,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>2076.880534163262</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.530232053367</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2673.530232053367</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2673.530232053367</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2419.768446691459</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2088.705559347888</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1735.936904077774</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1362.471145816694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>972.3318138408822</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.1727159660345</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C8" t="n">
-        <v>877.1727159660345</v>
+        <v>340.245025989438</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1727159660345</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>877.1727159660345</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V10" t="n">
-        <v>380.6275373157412</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,19 +5036,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="M12" t="n">
-        <v>1357.551052309181</v>
+        <v>709.2311732001874</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119722</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035274</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247799</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383382</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="W13" t="n">
-        <v>1022.450727412377</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X13" t="n">
-        <v>794.4611765143592</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746876</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N15" t="n">
-        <v>1835.861059011027</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.5716216891792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>355.5716216891794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>355.5716216891794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>355.5716216891794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>355.5716216891794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>355.5716216891794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>986.0022165609664</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>758.0126656629491</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.2200865194189</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>773.5483822357313</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N18" t="n">
-        <v>1824.002963247254</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.107466654927</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>1132.42297844904</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W19" t="n">
-        <v>843.0058084120794</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X19" t="n">
-        <v>615.0162575140621</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>394.223678370532</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,25 +5832,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L21" t="n">
-        <v>1261.931289262097</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M21" t="n">
-        <v>2030.299435654558</v>
+        <v>1645.803509761998</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>909.3712637033472</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>619.9540936663865</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>391.9645427683691</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,61 +5975,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>1609.589088435861</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.109744073479</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247862</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383444</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324576</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954966</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954966</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6221,52 +6221,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>334.2881267578666</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L27" t="n">
-        <v>334.2881267578666</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1836.31801826926</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2085.071432353222</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>355.2830904386601</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>186.3469075107532</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>757.72413441243</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>536.9315552688998</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,40 +6446,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6488,7 +6488,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542197</v>
+        <v>494.8466681110265</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542197</v>
+        <v>381.6713504644906</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232548</v>
+        <v>287.315576333526</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>265.4052739557756</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276534</v>
+        <v>265.4052739557756</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962062</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918253</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323877</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818806</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.65097189429</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>957.9946671387004</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>785.7659815220541</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030886</v>
+        <v>620.7342676598951</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6783,22 +6783,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1529.564517825232</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>1874.08517346285</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110832</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229662</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506715</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083195</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504502</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,10 +6856,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010307</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L36" t="n">
-        <v>674.4285624571609</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.23129327894</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.642871543091</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.642871543091</v>
+        <v>2072.756377331216</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860497</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,22 +7160,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,10 +7187,10 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1980.501175652876</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010316</v>
@@ -7388,22 +7388,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7412,25 +7412,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,13 +7442,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7491,25 +7491,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>672.7865564335245</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,16 +7649,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578666</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022017</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>213.3706945943357</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>261.3330142891929</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711639</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>178.3913131276568</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,10 +11154,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417969</v>
+        <v>208.4892383221585</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985793</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.3649088744071</v>
       </c>
       <c r="W13" t="n">
-        <v>176.9241063501416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>3.562088905203527</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>158.8051956154457</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>175.5466365346315</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.18000134477757</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>82.39383318338528</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>106.6166567390298</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>158.8051956154465</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.2331835502362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>60.37695512824966</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,16 +24649,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.3938331833854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.89508926774087</v>
+        <v>69.53950666403858</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437388</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897876</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523544</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
         <v>234617.4358426252</v>
@@ -26329,19 +26329,19 @@
         <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="I2" t="n">
         <v>234617.4358426252</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>234617.4358426251</v>
-      </c>
-      <c r="J2" t="n">
-        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592851</v>
+        <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
         <v>246312.530959285</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592852</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592852</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284601</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086662</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284588</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758429</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759043</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758474</v>
+        <v>787.7936905759315</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.4162047725</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189639</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-565573.5654992879</v>
       </c>
       <c r="C6" t="n">
-        <v>24394.31371525628</v>
+        <v>24394.31371525626</v>
       </c>
       <c r="D6" t="n">
-        <v>24394.31371525646</v>
+        <v>24394.3137152564</v>
       </c>
       <c r="E6" t="n">
-        <v>-383317.7202735635</v>
+        <v>-383415.1793995354</v>
       </c>
       <c r="F6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="G6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773604</v>
       </c>
       <c r="H6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773604</v>
       </c>
       <c r="I6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773606</v>
       </c>
       <c r="J6" t="n">
-        <v>-34580.90298926032</v>
+        <v>-34678.3621152325</v>
       </c>
       <c r="K6" t="n">
-        <v>84350.0523693209</v>
+        <v>84331.55863138608</v>
       </c>
       <c r="L6" t="n">
-        <v>115047.9374064965</v>
+        <v>115047.9374064967</v>
       </c>
       <c r="M6" t="n">
-        <v>-9410.171026473909</v>
+        <v>-9410.171026473719</v>
       </c>
       <c r="N6" t="n">
-        <v>125390.8442073633</v>
+        <v>125390.8442073632</v>
       </c>
       <c r="O6" t="n">
-        <v>125390.8442073634</v>
+        <v>125390.8442073635</v>
       </c>
       <c r="P6" t="n">
-        <v>81228.23890451761</v>
+        <v>81228.23890451758</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108328</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855735</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990168</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>260.8147443664144</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>235.8372776244836</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>92.03791056481025</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>88.98361496077254</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>31.09573219960527</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.70921434104014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>111.9378832230593</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.90423365580659</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>157.5940952031544</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>247.3207157000165</v>
       </c>
       <c r="V10" t="n">
-        <v>133.146316360126</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-3.689546683711769e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855736</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,7 +31379,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31601,10 +31601,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>61.04368814949335</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034983</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>202.771728792391</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>416.1363719285944</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31859,16 +31859,16 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,10 +32075,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32087,25 +32087,25 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>289.8191880348169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>35.83627885109462</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>301.7970625436787</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,19 +32546,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>361.1511322591783</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32567,13 +32567,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9375118102116744</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>337.8039389768536</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>112.8418941815589</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>50.62542019853623</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33269,16 +33269,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>438.8990799427509</v>
       </c>
       <c r="N30" t="n">
-        <v>369.6935619162747</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>307.9166969394141</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>296.4317285778564</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>63.06486971571462</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,16 +33901,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>156.2519421180777</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,34 +34211,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>349.0973324291813</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,25 +34457,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>526.3427586203726</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>764.1370341888146</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997186881</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,19 +35735,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>541.085262867102</v>
+        <v>70.77445014989128</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>268.1222443746796</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>553.0631373759638</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>593.4370977827633</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>129.9913022058596</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>324.5085416381933</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>589.0700138091387</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303323</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>239.4656922197785</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>235.1137814241432</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>762.4701097707325</v>
       </c>
       <c r="N30" t="n">
-        <v>717.6942241764949</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412289</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043212</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>631.4877267673957</v>
       </c>
       <c r="N33" t="n">
-        <v>47.04960104432353</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>620.002758405838</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>247.5532309413215</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>340.7403033436847</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>581.3832979527663</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197785</v>
+        <v>66.35520440014018</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
